--- a/QT/Qt/CureOffice/doc/工资发送模板.xlsx
+++ b/QT/Qt/CureOffice/doc/工资发送模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02-Daboo\01-Projects\10-公司办公软件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qt\projects\TaoCodeSVN\SoftWareProgramming\trunk\QT\Qt\build-CureOffice-Qt_5_5_1_msvc2013-Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -199,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -222,19 +222,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -244,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,12 +244,6 @@
     <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -272,9 +253,6 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -283,6 +261,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -568,7 +549,7 @@
   <dimension ref="A1:IT1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="K1" sqref="K1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -583,22 +564,22 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -631,271 +612,271 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
-      <c r="AZ1" s="12"/>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="12"/>
-      <c r="BD1" s="12"/>
-      <c r="BE1" s="12"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
-      <c r="BH1" s="12"/>
-      <c r="BI1" s="12"/>
-      <c r="BJ1" s="12"/>
-      <c r="BK1" s="12"/>
-      <c r="BL1" s="12"/>
-      <c r="BM1" s="12"/>
-      <c r="BN1" s="12"/>
-      <c r="BO1" s="12"/>
-      <c r="BP1" s="12"/>
-      <c r="BQ1" s="12"/>
-      <c r="BR1" s="12"/>
-      <c r="BS1" s="12"/>
-      <c r="BT1" s="12"/>
-      <c r="BU1" s="12"/>
-      <c r="BV1" s="12"/>
-      <c r="BW1" s="12"/>
-      <c r="BX1" s="12"/>
-      <c r="BY1" s="12"/>
-      <c r="BZ1" s="12"/>
-      <c r="CA1" s="12"/>
-      <c r="CB1" s="12"/>
-      <c r="CC1" s="12"/>
-      <c r="CD1" s="12"/>
-      <c r="CE1" s="12"/>
-      <c r="CF1" s="12"/>
-      <c r="CG1" s="12"/>
-      <c r="CH1" s="12"/>
-      <c r="CI1" s="12"/>
-      <c r="CJ1" s="12"/>
-      <c r="CK1" s="12"/>
-      <c r="CL1" s="12"/>
-      <c r="CM1" s="12"/>
-      <c r="CN1" s="12"/>
-      <c r="CO1" s="12"/>
-      <c r="CP1" s="12"/>
-      <c r="CQ1" s="12"/>
-      <c r="CR1" s="12"/>
-      <c r="CS1" s="12"/>
-      <c r="CT1" s="12"/>
-      <c r="CU1" s="12"/>
-      <c r="CV1" s="12"/>
-      <c r="CW1" s="12"/>
-      <c r="CX1" s="12"/>
-      <c r="CY1" s="12"/>
-      <c r="CZ1" s="12"/>
-      <c r="DA1" s="12"/>
-      <c r="DB1" s="12"/>
-      <c r="DC1" s="12"/>
-      <c r="DD1" s="12"/>
-      <c r="DE1" s="12"/>
-      <c r="DF1" s="12"/>
-      <c r="DG1" s="12"/>
-      <c r="DH1" s="12"/>
-      <c r="DI1" s="12"/>
-      <c r="DJ1" s="12"/>
-      <c r="DK1" s="12"/>
-      <c r="DL1" s="12"/>
-      <c r="DM1" s="12"/>
-      <c r="DN1" s="12"/>
-      <c r="DO1" s="12"/>
-      <c r="DP1" s="12"/>
-      <c r="DQ1" s="12"/>
-      <c r="DR1" s="12"/>
-      <c r="DS1" s="12"/>
-      <c r="DT1" s="12"/>
-      <c r="DU1" s="12"/>
-      <c r="DV1" s="12"/>
-      <c r="DW1" s="12"/>
-      <c r="DX1" s="12"/>
-      <c r="DY1" s="12"/>
-      <c r="DZ1" s="12"/>
-      <c r="EA1" s="12"/>
-      <c r="EB1" s="12"/>
-      <c r="EC1" s="12"/>
-      <c r="ED1" s="12"/>
-      <c r="EE1" s="12"/>
-      <c r="EF1" s="12"/>
-      <c r="EG1" s="12"/>
-      <c r="EH1" s="12"/>
-      <c r="EI1" s="12"/>
-      <c r="EJ1" s="12"/>
-      <c r="EK1" s="12"/>
-      <c r="EL1" s="12"/>
-      <c r="EM1" s="12"/>
-      <c r="EN1" s="12"/>
-      <c r="EO1" s="12"/>
-      <c r="EP1" s="12"/>
-      <c r="EQ1" s="12"/>
-      <c r="ER1" s="12"/>
-      <c r="ES1" s="12"/>
-      <c r="ET1" s="12"/>
-      <c r="EU1" s="12"/>
-      <c r="EV1" s="12"/>
-      <c r="EW1" s="12"/>
-      <c r="EX1" s="12"/>
-      <c r="EY1" s="12"/>
-      <c r="EZ1" s="12"/>
-      <c r="FA1" s="12"/>
-      <c r="FB1" s="12"/>
-      <c r="FC1" s="12"/>
-      <c r="FD1" s="12"/>
-      <c r="FE1" s="12"/>
-      <c r="FF1" s="12"/>
-      <c r="FG1" s="12"/>
-      <c r="FH1" s="12"/>
-      <c r="FI1" s="12"/>
-      <c r="FJ1" s="12"/>
-      <c r="FK1" s="12"/>
-      <c r="FL1" s="12"/>
-      <c r="FM1" s="12"/>
-      <c r="FN1" s="12"/>
-      <c r="FO1" s="12"/>
-      <c r="FP1" s="12"/>
-      <c r="FQ1" s="12"/>
-      <c r="FR1" s="12"/>
-      <c r="FS1" s="12"/>
-      <c r="FT1" s="12"/>
-      <c r="FU1" s="12"/>
-      <c r="FV1" s="12"/>
-      <c r="FW1" s="12"/>
-      <c r="FX1" s="12"/>
-      <c r="FY1" s="12"/>
-      <c r="FZ1" s="12"/>
-      <c r="GA1" s="12"/>
-      <c r="GB1" s="12"/>
-      <c r="GC1" s="12"/>
-      <c r="GD1" s="12"/>
-      <c r="GE1" s="12"/>
-      <c r="GF1" s="12"/>
-      <c r="GG1" s="12"/>
-      <c r="GH1" s="12"/>
-      <c r="GI1" s="12"/>
-      <c r="GJ1" s="12"/>
-      <c r="GK1" s="12"/>
-      <c r="GL1" s="12"/>
-      <c r="GM1" s="12"/>
-      <c r="GN1" s="12"/>
-      <c r="GO1" s="12"/>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
-      <c r="GT1" s="12"/>
-      <c r="GU1" s="12"/>
-      <c r="GV1" s="12"/>
-      <c r="GW1" s="12"/>
-      <c r="GX1" s="12"/>
-      <c r="GY1" s="12"/>
-      <c r="GZ1" s="12"/>
-      <c r="HA1" s="12"/>
-      <c r="HB1" s="12"/>
-      <c r="HC1" s="12"/>
-      <c r="HD1" s="12"/>
-      <c r="HE1" s="12"/>
-      <c r="HF1" s="12"/>
-      <c r="HG1" s="12"/>
-      <c r="HH1" s="12"/>
-      <c r="HI1" s="12"/>
-      <c r="HJ1" s="12"/>
-      <c r="HK1" s="12"/>
-      <c r="HL1" s="12"/>
-      <c r="HM1" s="12"/>
-      <c r="HN1" s="12"/>
-      <c r="HO1" s="12"/>
-      <c r="HP1" s="12"/>
-      <c r="HQ1" s="12"/>
-      <c r="HR1" s="12"/>
-      <c r="HS1" s="12"/>
-      <c r="HT1" s="12"/>
-      <c r="HU1" s="12"/>
-      <c r="HV1" s="12"/>
-      <c r="HW1" s="12"/>
-      <c r="HX1" s="12"/>
-      <c r="HY1" s="12"/>
-      <c r="HZ1" s="12"/>
-      <c r="IA1" s="12"/>
-      <c r="IB1" s="12"/>
-      <c r="IC1" s="12"/>
-      <c r="ID1" s="12"/>
-      <c r="IE1" s="12"/>
-      <c r="IF1" s="12"/>
-      <c r="IG1" s="12"/>
-      <c r="IH1" s="12"/>
-      <c r="II1" s="12"/>
-      <c r="IJ1" s="12"/>
-      <c r="IK1" s="12"/>
-      <c r="IL1" s="12"/>
-      <c r="IM1" s="12"/>
-      <c r="IN1" s="12"/>
-      <c r="IO1" s="12"/>
-      <c r="IP1" s="12"/>
-      <c r="IQ1" s="12"/>
-      <c r="IR1" s="12"/>
-      <c r="IS1" s="12"/>
-      <c r="IT1" s="12"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="9"/>
+      <c r="BO1" s="9"/>
+      <c r="BP1" s="9"/>
+      <c r="BQ1" s="9"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="9"/>
+      <c r="BT1" s="9"/>
+      <c r="BU1" s="9"/>
+      <c r="BV1" s="9"/>
+      <c r="BW1" s="9"/>
+      <c r="BX1" s="9"/>
+      <c r="BY1" s="9"/>
+      <c r="BZ1" s="9"/>
+      <c r="CA1" s="9"/>
+      <c r="CB1" s="9"/>
+      <c r="CC1" s="9"/>
+      <c r="CD1" s="9"/>
+      <c r="CE1" s="9"/>
+      <c r="CF1" s="9"/>
+      <c r="CG1" s="9"/>
+      <c r="CH1" s="9"/>
+      <c r="CI1" s="9"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="9"/>
+      <c r="CL1" s="9"/>
+      <c r="CM1" s="9"/>
+      <c r="CN1" s="9"/>
+      <c r="CO1" s="9"/>
+      <c r="CP1" s="9"/>
+      <c r="CQ1" s="9"/>
+      <c r="CR1" s="9"/>
+      <c r="CS1" s="9"/>
+      <c r="CT1" s="9"/>
+      <c r="CU1" s="9"/>
+      <c r="CV1" s="9"/>
+      <c r="CW1" s="9"/>
+      <c r="CX1" s="9"/>
+      <c r="CY1" s="9"/>
+      <c r="CZ1" s="9"/>
+      <c r="DA1" s="9"/>
+      <c r="DB1" s="9"/>
+      <c r="DC1" s="9"/>
+      <c r="DD1" s="9"/>
+      <c r="DE1" s="9"/>
+      <c r="DF1" s="9"/>
+      <c r="DG1" s="9"/>
+      <c r="DH1" s="9"/>
+      <c r="DI1" s="9"/>
+      <c r="DJ1" s="9"/>
+      <c r="DK1" s="9"/>
+      <c r="DL1" s="9"/>
+      <c r="DM1" s="9"/>
+      <c r="DN1" s="9"/>
+      <c r="DO1" s="9"/>
+      <c r="DP1" s="9"/>
+      <c r="DQ1" s="9"/>
+      <c r="DR1" s="9"/>
+      <c r="DS1" s="9"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="9"/>
+      <c r="DV1" s="9"/>
+      <c r="DW1" s="9"/>
+      <c r="DX1" s="9"/>
+      <c r="DY1" s="9"/>
+      <c r="DZ1" s="9"/>
+      <c r="EA1" s="9"/>
+      <c r="EB1" s="9"/>
+      <c r="EC1" s="9"/>
+      <c r="ED1" s="9"/>
+      <c r="EE1" s="9"/>
+      <c r="EF1" s="9"/>
+      <c r="EG1" s="9"/>
+      <c r="EH1" s="9"/>
+      <c r="EI1" s="9"/>
+      <c r="EJ1" s="9"/>
+      <c r="EK1" s="9"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="9"/>
+      <c r="EN1" s="9"/>
+      <c r="EO1" s="9"/>
+      <c r="EP1" s="9"/>
+      <c r="EQ1" s="9"/>
+      <c r="ER1" s="9"/>
+      <c r="ES1" s="9"/>
+      <c r="ET1" s="9"/>
+      <c r="EU1" s="9"/>
+      <c r="EV1" s="9"/>
+      <c r="EW1" s="9"/>
+      <c r="EX1" s="9"/>
+      <c r="EY1" s="9"/>
+      <c r="EZ1" s="9"/>
+      <c r="FA1" s="9"/>
+      <c r="FB1" s="9"/>
+      <c r="FC1" s="9"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="9"/>
+      <c r="FF1" s="9"/>
+      <c r="FG1" s="9"/>
+      <c r="FH1" s="9"/>
+      <c r="FI1" s="9"/>
+      <c r="FJ1" s="9"/>
+      <c r="FK1" s="9"/>
+      <c r="FL1" s="9"/>
+      <c r="FM1" s="9"/>
+      <c r="FN1" s="9"/>
+      <c r="FO1" s="9"/>
+      <c r="FP1" s="9"/>
+      <c r="FQ1" s="9"/>
+      <c r="FR1" s="9"/>
+      <c r="FS1" s="9"/>
+      <c r="FT1" s="9"/>
+      <c r="FU1" s="9"/>
+      <c r="FV1" s="9"/>
+      <c r="FW1" s="9"/>
+      <c r="FX1" s="9"/>
+      <c r="FY1" s="9"/>
+      <c r="FZ1" s="9"/>
+      <c r="GA1" s="9"/>
+      <c r="GB1" s="9"/>
+      <c r="GC1" s="9"/>
+      <c r="GD1" s="9"/>
+      <c r="GE1" s="9"/>
+      <c r="GF1" s="9"/>
+      <c r="GG1" s="9"/>
+      <c r="GH1" s="9"/>
+      <c r="GI1" s="9"/>
+      <c r="GJ1" s="9"/>
+      <c r="GK1" s="9"/>
+      <c r="GL1" s="9"/>
+      <c r="GM1" s="9"/>
+      <c r="GN1" s="9"/>
+      <c r="GO1" s="9"/>
+      <c r="GP1" s="9"/>
+      <c r="GQ1" s="9"/>
+      <c r="GR1" s="9"/>
+      <c r="GS1" s="9"/>
+      <c r="GT1" s="9"/>
+      <c r="GU1" s="9"/>
+      <c r="GV1" s="9"/>
+      <c r="GW1" s="9"/>
+      <c r="GX1" s="9"/>
+      <c r="GY1" s="9"/>
+      <c r="GZ1" s="9"/>
+      <c r="HA1" s="9"/>
+      <c r="HB1" s="9"/>
+      <c r="HC1" s="9"/>
+      <c r="HD1" s="9"/>
+      <c r="HE1" s="9"/>
+      <c r="HF1" s="9"/>
+      <c r="HG1" s="9"/>
+      <c r="HH1" s="9"/>
+      <c r="HI1" s="9"/>
+      <c r="HJ1" s="9"/>
+      <c r="HK1" s="9"/>
+      <c r="HL1" s="9"/>
+      <c r="HM1" s="9"/>
+      <c r="HN1" s="9"/>
+      <c r="HO1" s="9"/>
+      <c r="HP1" s="9"/>
+      <c r="HQ1" s="9"/>
+      <c r="HR1" s="9"/>
+      <c r="HS1" s="9"/>
+      <c r="HT1" s="9"/>
+      <c r="HU1" s="9"/>
+      <c r="HV1" s="9"/>
+      <c r="HW1" s="9"/>
+      <c r="HX1" s="9"/>
+      <c r="HY1" s="9"/>
+      <c r="HZ1" s="9"/>
+      <c r="IA1" s="9"/>
+      <c r="IB1" s="9"/>
+      <c r="IC1" s="9"/>
+      <c r="ID1" s="9"/>
+      <c r="IE1" s="9"/>
+      <c r="IF1" s="9"/>
+      <c r="IG1" s="9"/>
+      <c r="IH1" s="9"/>
+      <c r="II1" s="9"/>
+      <c r="IJ1" s="9"/>
+      <c r="IK1" s="9"/>
+      <c r="IL1" s="9"/>
+      <c r="IM1" s="9"/>
+      <c r="IN1" s="9"/>
+      <c r="IO1" s="9"/>
+      <c r="IP1" s="9"/>
+      <c r="IQ1" s="9"/>
+      <c r="IR1" s="9"/>
+      <c r="IS1" s="9"/>
+      <c r="IT1" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
